--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,6 +105,60 @@
     <t>COVID-19 vaccine, inactivated virus</t>
   </si>
   <si>
+    <t>XM7HT3</t>
+  </si>
+  <si>
+    <t>CoronaVac®</t>
+  </si>
+  <si>
+    <t>XM8866</t>
+  </si>
+  <si>
+    <t>BBIBP-CorV</t>
+  </si>
+  <si>
+    <t>XM9TQ1</t>
+  </si>
+  <si>
+    <t>KCONVAC</t>
+  </si>
+  <si>
+    <t>XM1G90</t>
+  </si>
+  <si>
+    <t>Covaxin</t>
+  </si>
+  <si>
+    <t>XM85P5</t>
+  </si>
+  <si>
+    <t>Covi-Vac</t>
+  </si>
+  <si>
+    <t>XM9FQ7</t>
+  </si>
+  <si>
+    <t>Hayat-Vax</t>
+  </si>
+  <si>
+    <t>XM97N6</t>
+  </si>
+  <si>
+    <t>QazVac</t>
+  </si>
+  <si>
+    <t>XM2YG8</t>
+  </si>
+  <si>
+    <t>COVIran Barakat</t>
+  </si>
+  <si>
+    <t>XM3U61</t>
+  </si>
+  <si>
+    <t>Inactivated SARS-CoV-2 vaccine</t>
+  </si>
+  <si>
     <t>XM5DF6</t>
   </si>
   <si>
@@ -117,6 +171,42 @@
     <t>COVID-19 vaccine, non-replicating viral vector</t>
   </si>
   <si>
+    <t>XM4YL8</t>
+  </si>
+  <si>
+    <t>COVID-19 Vaccine AstraZeneca</t>
+  </si>
+  <si>
+    <t>XM97T2</t>
+  </si>
+  <si>
+    <t>Covishield®</t>
+  </si>
+  <si>
+    <t>XM6QV1</t>
+  </si>
+  <si>
+    <t>COVID-19 Vaccine Janssen</t>
+  </si>
+  <si>
+    <t>XM1AG7</t>
+  </si>
+  <si>
+    <t>Convidecia</t>
+  </si>
+  <si>
+    <t>XM5ZJ4</t>
+  </si>
+  <si>
+    <t>Gam-Covid-Vac</t>
+  </si>
+  <si>
+    <t>XM5QM6</t>
+  </si>
+  <si>
+    <t>Sputnik-Light</t>
+  </si>
+  <si>
     <t>XM0CX4</t>
   </si>
   <si>
@@ -129,6 +219,30 @@
     <t>COVID-19 vaccine, virus protein subunit</t>
   </si>
   <si>
+    <t>XM3CT4</t>
+  </si>
+  <si>
+    <t>Recombinant SARS-CoV-2 vaccine</t>
+  </si>
+  <si>
+    <t>XM3PG0</t>
+  </si>
+  <si>
+    <t>Soberana-02</t>
+  </si>
+  <si>
+    <t>XM4EC8</t>
+  </si>
+  <si>
+    <t>MVC-COV1901</t>
+  </si>
+  <si>
+    <t>XM6SZ8</t>
+  </si>
+  <si>
+    <t>EpiVacCorona</t>
+  </si>
+  <si>
     <t>XM1J92</t>
   </si>
   <si>
@@ -141,10 +255,28 @@
     <t>COVID-19 vaccine, DNA based</t>
   </si>
   <si>
+    <t>XM52P3</t>
+  </si>
+  <si>
+    <t>ZyCov-D</t>
+  </si>
+  <si>
     <t>XM0GQ8</t>
   </si>
   <si>
     <t>COVID-19 vaccine, RNA based</t>
+  </si>
+  <si>
+    <t>XM8NQ0</t>
+  </si>
+  <si>
+    <t>Comirnaty®</t>
+  </si>
+  <si>
+    <t>XM3DT5</t>
+  </si>
+  <si>
+    <t>COVID-19 Vaccine Moderna</t>
   </si>
   <si>
     <t/>
@@ -410,7 +542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -505,15 +637,191 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T16:26:01+00:00</t>
+    <t>2021-11-11T22:15:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization (WHO)</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -519,20 +525,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -554,274 +568,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
+++ b/refs/heads/main/ValueSet-who-ddcc-vaccines-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
